--- a/biology/Zoologie/Homaloptera/Homaloptera.xlsx
+++ b/biology/Zoologie/Homaloptera/Homaloptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homaloptera est un genre de poissons d'eau douce téléostéens de la famille des Balitoridae (ordre des Cypriniformes).
 </t>
@@ -511,17 +523,53 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (23 novembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (23 novembre 2023) :
 Homaloptera bilineata Blyth, 1860
 Homaloptera confuzona Kottelat, 2000
 Homaloptera ocellata van der Hoeven, 1833
 Homaloptera ogilviei Alfred, 1967
 Homaloptera orthogoniata Vaillant, 1902
-Homaloptera parclitella H. H. Tan &amp; P. K. L. Ng, 2005
-Note
-Selon FishBase                                           (10 juillet 2015)[2] ; la liste suivante est à caractère purement indicatif, la majorité de ces espèces étant aujourd'hui réparties dans un grand nombre d’autres genres et familles (Cypriniformes)[3] :
+Homaloptera parclitella H. H. Tan &amp; P. K. L. Ng, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Homaloptera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Homaloptera</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (10 juillet 2015) ; la liste suivante est à caractère purement indicatif, la majorité de ces espèces étant aujourd'hui réparties dans un grand nombre d’autres genres et familles (Cypriniformes) :
 Homaloptera batek Tan, 2009
 Homaloptera bilineata Blyth, 1860
 Homaloptera confuzona Kottelat, 2000
@@ -561,38 +609,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Homaloptera</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Homaloptera</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Homaloptera van Hasselt, 1823[1].
-Homaloptera a pour synonyme[1] :
-Helgia Vinciguerra, 1890</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -614,12 +630,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Homaloptera van Hasselt, 1823.
+Homaloptera a pour synonyme :
+Helgia Vinciguerra, 1890</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Homaloptera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Homaloptera</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Homaloptera, du grec ancien ὁμαλός, homalós, « semblable », et πτερόν, pterón, « nageoire », et fait probablement référence « à la position horizontale des nageoires pectorales et ventrales[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Homaloptera, du grec ancien ὁμαλός, homalós, « semblable », et πτερόν, pterón, « nageoire », et fait probablement référence « à la position horizontale des nageoires pectorales et ventrales.
 </t>
         </is>
       </c>
